--- a/2022/Realme/January/29.01.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/January/29.01.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-2022" sheetId="7" r:id="rId1"/>
@@ -3197,8 +3197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4131,7 +4131,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7427,8 +7427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI226"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16164,8 +16164,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16180,8 +16180,12 @@
     <col min="8" max="8" width="1.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="1.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="12" max="13" width="2" style="15" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" style="15" customWidth="1"/>
+    <col min="15" max="16" width="1.28515625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="2" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
@@ -16248,7 +16252,7 @@
       <c r="D4" s="301"/>
       <c r="E4" s="302"/>
       <c r="F4" s="227"/>
-      <c r="G4" s="19"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
@@ -16354,7 +16358,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="216">
-        <v>924018.80000000075</v>
+        <v>824018.80000000075</v>
       </c>
       <c r="F7" s="227"/>
       <c r="H7" s="29"/>
@@ -16634,7 +16638,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="220">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="175"/>
@@ -16670,8 +16674,8 @@
         <v>4</v>
       </c>
       <c r="B16" s="179">
-        <f>B5+B6-B9-B14-B15-B10-B13</f>
-        <v>8010433.8000000007</v>
+        <f>B5+B6-B9-B13-B14-B15</f>
+        <v>7910433.8000000007</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="174" t="s">
@@ -16679,7 +16683,7 @@
       </c>
       <c r="E16" s="180">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>8010433.8000000007</v>
+        <v>7910433.8000000007</v>
       </c>
       <c r="F16" s="227"/>
       <c r="G16" s="151">
